--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2052,28 +2052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>865.3596504882836</v>
+        <v>1012.153304124728</v>
       </c>
       <c r="AB2" t="n">
-        <v>1184.023250771454</v>
+        <v>1384.872803755777</v>
       </c>
       <c r="AC2" t="n">
-        <v>1071.021733504895</v>
+        <v>1252.702487046512</v>
       </c>
       <c r="AD2" t="n">
-        <v>865359.6504882836</v>
+        <v>1012153.304124728</v>
       </c>
       <c r="AE2" t="n">
-        <v>1184023.250771454</v>
+        <v>1384872.803755777</v>
       </c>
       <c r="AF2" t="n">
         <v>5.484903702407128e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.6125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1071021.733504895</v>
+        <v>1252702.487046513</v>
       </c>
     </row>
     <row r="3">
@@ -2158,28 +2158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>322.1434155866471</v>
+        <v>390.6299100901618</v>
       </c>
       <c r="AB3" t="n">
-        <v>440.7708331701171</v>
+        <v>534.4770763607231</v>
       </c>
       <c r="AC3" t="n">
-        <v>398.7042834781101</v>
+        <v>483.4673343361429</v>
       </c>
       <c r="AD3" t="n">
-        <v>322143.4155866471</v>
+        <v>390629.9100901618</v>
       </c>
       <c r="AE3" t="n">
-        <v>440770.8331701171</v>
+        <v>534477.0763607231</v>
       </c>
       <c r="AF3" t="n">
         <v>1.037615255727675e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>398704.2834781101</v>
+        <v>483467.3343361429</v>
       </c>
     </row>
     <row r="4">
@@ -2264,28 +2264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>301.3016557599775</v>
+        <v>379.5756605039834</v>
       </c>
       <c r="AB4" t="n">
-        <v>412.2542179017174</v>
+        <v>519.3521643978406</v>
       </c>
       <c r="AC4" t="n">
-        <v>372.9092539476055</v>
+        <v>469.7859227430506</v>
       </c>
       <c r="AD4" t="n">
-        <v>301301.6557599775</v>
+        <v>379575.6605039834</v>
       </c>
       <c r="AE4" t="n">
-        <v>412254.2179017174</v>
+        <v>519352.1643978406</v>
       </c>
       <c r="AF4" t="n">
         <v>1.070160800668818e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>372909.2539476055</v>
+        <v>469785.9227430506</v>
       </c>
     </row>
   </sheetData>
@@ -2561,28 +2561,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>547.6235488025103</v>
+        <v>654.042269645995</v>
       </c>
       <c r="AB2" t="n">
-        <v>749.2826989174804</v>
+        <v>894.8894876381531</v>
       </c>
       <c r="AC2" t="n">
-        <v>677.7722097576681</v>
+        <v>809.4824909232512</v>
       </c>
       <c r="AD2" t="n">
-        <v>547623.5488025103</v>
+        <v>654042.269645995</v>
       </c>
       <c r="AE2" t="n">
-        <v>749282.6989174804</v>
+        <v>894889.4876381531</v>
       </c>
       <c r="AF2" t="n">
         <v>7.780798816497511e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.07083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>677772.2097576681</v>
+        <v>809482.4909232513</v>
       </c>
     </row>
     <row r="3">
@@ -2667,28 +2667,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>304.5149749805299</v>
+        <v>372.2456646423631</v>
       </c>
       <c r="AB3" t="n">
-        <v>416.6508230209163</v>
+        <v>509.3229406833771</v>
       </c>
       <c r="AC3" t="n">
-        <v>376.8862532449022</v>
+        <v>460.7138740637916</v>
       </c>
       <c r="AD3" t="n">
-        <v>304514.9749805299</v>
+        <v>372245.6646423631</v>
       </c>
       <c r="AE3" t="n">
-        <v>416650.8230209163</v>
+        <v>509322.9406833771</v>
       </c>
       <c r="AF3" t="n">
         <v>1.131385356038016e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.17916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>376886.2532449021</v>
+        <v>460713.8740637916</v>
       </c>
     </row>
     <row r="4">
@@ -2773,28 +2773,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>304.5153296278853</v>
+        <v>372.2460192897184</v>
       </c>
       <c r="AB4" t="n">
-        <v>416.6513082650737</v>
+        <v>509.3234259275346</v>
       </c>
       <c r="AC4" t="n">
-        <v>376.8866921780382</v>
+        <v>460.7143129969278</v>
       </c>
       <c r="AD4" t="n">
-        <v>304515.3296278853</v>
+        <v>372246.0192897184</v>
       </c>
       <c r="AE4" t="n">
-        <v>416651.3082650737</v>
+        <v>509323.4259275346</v>
       </c>
       <c r="AF4" t="n">
         <v>1.13422927551221e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.14166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>376886.6921780382</v>
+        <v>460714.3129969278</v>
       </c>
     </row>
   </sheetData>
@@ -3070,28 +3070,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>335.6021410685605</v>
+        <v>419.7341569183947</v>
       </c>
       <c r="AB2" t="n">
-        <v>459.185655131534</v>
+        <v>574.2987908598619</v>
       </c>
       <c r="AC2" t="n">
-        <v>415.3616206768943</v>
+        <v>519.4885202936114</v>
       </c>
       <c r="AD2" t="n">
-        <v>335602.1410685605</v>
+        <v>419734.1569183947</v>
       </c>
       <c r="AE2" t="n">
-        <v>459185.655131534</v>
+        <v>574298.7908598619</v>
       </c>
       <c r="AF2" t="n">
         <v>1.297219468095374e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>415361.6206768943</v>
+        <v>519488.5202936113</v>
       </c>
     </row>
     <row r="3">
@@ -3176,28 +3176,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>336.1125119950893</v>
+        <v>420.2445278449235</v>
       </c>
       <c r="AB3" t="n">
-        <v>459.883967149187</v>
+        <v>574.9971028775149</v>
       </c>
       <c r="AC3" t="n">
-        <v>415.9932867756695</v>
+        <v>520.1201863923866</v>
       </c>
       <c r="AD3" t="n">
-        <v>336112.5119950893</v>
+        <v>420244.5278449235</v>
       </c>
       <c r="AE3" t="n">
-        <v>459883.967149187</v>
+        <v>574997.1028775149</v>
       </c>
       <c r="AF3" t="n">
         <v>1.299693211371266e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.44166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>415993.2867756695</v>
+        <v>520120.1863923866</v>
       </c>
     </row>
   </sheetData>
@@ -3473,28 +3473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>311.5194998404774</v>
+        <v>396.8284655780066</v>
       </c>
       <c r="AB2" t="n">
-        <v>426.2347229521238</v>
+        <v>542.9582134401604</v>
       </c>
       <c r="AC2" t="n">
-        <v>385.5554792177633</v>
+        <v>491.1390435960694</v>
       </c>
       <c r="AD2" t="n">
-        <v>311519.4998404774</v>
+        <v>396828.4655780066</v>
       </c>
       <c r="AE2" t="n">
-        <v>426234.7229521238</v>
+        <v>542958.2134401604</v>
       </c>
       <c r="AF2" t="n">
         <v>1.237628304689852e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>385555.4792177633</v>
+        <v>491139.0435960694</v>
       </c>
     </row>
     <row r="3">
@@ -3579,28 +3579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>309.5410370257121</v>
+        <v>394.8500027632413</v>
       </c>
       <c r="AB3" t="n">
-        <v>423.5277028453427</v>
+        <v>540.2511933333792</v>
       </c>
       <c r="AC3" t="n">
-        <v>383.1068133106468</v>
+        <v>488.6903776889529</v>
       </c>
       <c r="AD3" t="n">
-        <v>309541.0370257121</v>
+        <v>394850.0027632412</v>
       </c>
       <c r="AE3" t="n">
-        <v>423527.7028453427</v>
+        <v>540251.1933333792</v>
       </c>
       <c r="AF3" t="n">
         <v>1.248638523486102e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>383106.8133106468</v>
+        <v>488690.377688953</v>
       </c>
     </row>
   </sheetData>
@@ -3876,28 +3876,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>369.0271089160299</v>
+        <v>470.7566186001981</v>
       </c>
       <c r="AB2" t="n">
-        <v>504.9191707459507</v>
+        <v>644.1099738850503</v>
       </c>
       <c r="AC2" t="n">
-        <v>456.7303937484634</v>
+        <v>582.6370219914864</v>
       </c>
       <c r="AD2" t="n">
-        <v>369027.1089160299</v>
+        <v>470756.6186001981</v>
       </c>
       <c r="AE2" t="n">
-        <v>504919.1707459507</v>
+        <v>644109.9738850503</v>
       </c>
       <c r="AF2" t="n">
         <v>1.315128908569669e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>456730.3937484634</v>
+        <v>582637.0219914864</v>
       </c>
     </row>
     <row r="3">
@@ -3982,28 +3982,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>370.70667526567</v>
+        <v>472.4361849498381</v>
       </c>
       <c r="AB3" t="n">
-        <v>507.2172275227661</v>
+        <v>646.4080306618656</v>
       </c>
       <c r="AC3" t="n">
-        <v>458.8091272118423</v>
+        <v>584.7157554548655</v>
       </c>
       <c r="AD3" t="n">
-        <v>370706.6752656699</v>
+        <v>472436.1849498381</v>
       </c>
       <c r="AE3" t="n">
-        <v>507217.227522766</v>
+        <v>646408.0306618656</v>
       </c>
       <c r="AF3" t="n">
         <v>1.315128908569669e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>458809.1272118423</v>
+        <v>584715.7554548655</v>
       </c>
     </row>
   </sheetData>
@@ -4279,28 +4279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>608.4884022525137</v>
+        <v>724.8940614119497</v>
       </c>
       <c r="AB2" t="n">
-        <v>832.5606765755995</v>
+        <v>991.8320348927798</v>
       </c>
       <c r="AC2" t="n">
-        <v>753.1022541094721</v>
+        <v>897.1729775276159</v>
       </c>
       <c r="AD2" t="n">
-        <v>608488.4022525137</v>
+        <v>724894.0614119497</v>
       </c>
       <c r="AE2" t="n">
-        <v>832560.6765755995</v>
+        <v>991832.0348927798</v>
       </c>
       <c r="AF2" t="n">
         <v>7.134722504895239e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.4875</v>
       </c>
       <c r="AH2" t="n">
-        <v>753102.2541094722</v>
+        <v>897172.9775276158</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>306.3073898663566</v>
+        <v>374.2367363692203</v>
       </c>
       <c r="AB3" t="n">
-        <v>419.1032841434682</v>
+        <v>512.0472128599483</v>
       </c>
       <c r="AC3" t="n">
-        <v>379.1046549199684</v>
+        <v>463.1781455273709</v>
       </c>
       <c r="AD3" t="n">
-        <v>306307.3898663566</v>
+        <v>374236.7363692203</v>
       </c>
       <c r="AE3" t="n">
-        <v>419103.2841434681</v>
+        <v>512047.2128599483</v>
       </c>
       <c r="AF3" t="n">
         <v>1.114189541860352e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>379104.6549199684</v>
+        <v>463178.1455273709</v>
       </c>
     </row>
     <row r="4">
@@ -4491,28 +4491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>295.321255969502</v>
+        <v>372.9585201413353</v>
       </c>
       <c r="AB4" t="n">
-        <v>404.0715710717707</v>
+        <v>510.2983010260358</v>
       </c>
       <c r="AC4" t="n">
-        <v>365.507547446692</v>
+        <v>461.5961473842739</v>
       </c>
       <c r="AD4" t="n">
-        <v>295321.255969502</v>
+        <v>372958.5201413353</v>
       </c>
       <c r="AE4" t="n">
-        <v>404071.5710717707</v>
+        <v>510298.3010260358</v>
       </c>
       <c r="AF4" t="n">
         <v>1.120343285268938e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.95833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>365507.547446692</v>
+        <v>461596.1473842739</v>
       </c>
     </row>
   </sheetData>
@@ -4788,28 +4788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>413.2038725995288</v>
+        <v>514.2554202050186</v>
       </c>
       <c r="AB2" t="n">
-        <v>565.363767758978</v>
+        <v>703.6269532724542</v>
       </c>
       <c r="AC2" t="n">
-        <v>511.4062432570921</v>
+        <v>636.4737843987617</v>
       </c>
       <c r="AD2" t="n">
-        <v>413203.8725995288</v>
+        <v>514255.4202050186</v>
       </c>
       <c r="AE2" t="n">
-        <v>565363.7677589781</v>
+        <v>703626.9532724542</v>
       </c>
       <c r="AF2" t="n">
         <v>1.303666213365261e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>511406.2432570921</v>
+        <v>636473.7843987617</v>
       </c>
     </row>
   </sheetData>
@@ -5085,28 +5085,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>388.5708835115126</v>
+        <v>474.7995577561456</v>
       </c>
       <c r="AB2" t="n">
-        <v>531.6598253579734</v>
+        <v>649.6417016001053</v>
       </c>
       <c r="AC2" t="n">
-        <v>480.9189578150592</v>
+        <v>587.6408093772451</v>
       </c>
       <c r="AD2" t="n">
-        <v>388570.8835115127</v>
+        <v>474799.5577561457</v>
       </c>
       <c r="AE2" t="n">
-        <v>531659.8253579735</v>
+        <v>649641.7016001053</v>
       </c>
       <c r="AF2" t="n">
         <v>1.015418278949885e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.39166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>480918.9578150592</v>
+        <v>587640.8093772451</v>
       </c>
     </row>
     <row r="3">
@@ -5191,28 +5191,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>300.150017808912</v>
+        <v>376.8575680776564</v>
       </c>
       <c r="AB3" t="n">
-        <v>410.678496050389</v>
+        <v>515.6331504263652</v>
       </c>
       <c r="AC3" t="n">
-        <v>371.4839167782284</v>
+        <v>466.4218462453441</v>
       </c>
       <c r="AD3" t="n">
-        <v>300150.017808912</v>
+        <v>376857.5680776564</v>
       </c>
       <c r="AE3" t="n">
-        <v>410678.496050389</v>
+        <v>515633.1504263652</v>
       </c>
       <c r="AF3" t="n">
         <v>1.190114860639723e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.69166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>371483.9167782284</v>
+        <v>466421.846245344</v>
       </c>
     </row>
   </sheetData>
@@ -5488,28 +5488,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>482.8927006809093</v>
+        <v>589.020530029858</v>
       </c>
       <c r="AB2" t="n">
-        <v>660.7150967940338</v>
+        <v>805.923874938655</v>
       </c>
       <c r="AC2" t="n">
-        <v>597.6573752754729</v>
+        <v>729.0076314357716</v>
       </c>
       <c r="AD2" t="n">
-        <v>482892.7006809093</v>
+        <v>589020.530029858</v>
       </c>
       <c r="AE2" t="n">
-        <v>660715.0967940338</v>
+        <v>805923.8749386549</v>
       </c>
       <c r="AF2" t="n">
         <v>8.498306956859106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.74166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>597657.3752754729</v>
+        <v>729007.6314357716</v>
       </c>
     </row>
     <row r="3">
@@ -5594,28 +5594,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.8109645505263</v>
+        <v>379.9182027914806</v>
       </c>
       <c r="AB3" t="n">
-        <v>414.3193207749507</v>
+        <v>519.8208458674934</v>
       </c>
       <c r="AC3" t="n">
-        <v>374.7772663010075</v>
+        <v>470.2098739110384</v>
       </c>
       <c r="AD3" t="n">
-        <v>302810.9645505262</v>
+        <v>379918.2027914806</v>
       </c>
       <c r="AE3" t="n">
-        <v>414319.3207749507</v>
+        <v>519820.8458674934</v>
       </c>
       <c r="AF3" t="n">
         <v>1.150987782777752e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>374777.2663010075</v>
+        <v>470209.8739110384</v>
       </c>
     </row>
     <row r="4">
@@ -5700,28 +5700,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>302.7111254839099</v>
+        <v>379.8183637248642</v>
       </c>
       <c r="AB4" t="n">
-        <v>414.1827165594174</v>
+        <v>519.6842416519602</v>
       </c>
       <c r="AC4" t="n">
-        <v>374.6536994000796</v>
+        <v>470.0863070101105</v>
       </c>
       <c r="AD4" t="n">
-        <v>302711.1254839099</v>
+        <v>379818.3637248642</v>
       </c>
       <c r="AE4" t="n">
-        <v>414182.7165594174</v>
+        <v>519684.2416519602</v>
       </c>
       <c r="AF4" t="n">
         <v>1.153991316024489e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.275</v>
       </c>
       <c r="AH4" t="n">
-        <v>374653.6994000796</v>
+        <v>470086.3070101105</v>
       </c>
     </row>
   </sheetData>
@@ -5997,28 +5997,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>764.3956577008948</v>
+        <v>901.0411819569106</v>
       </c>
       <c r="AB2" t="n">
-        <v>1045.87986162275</v>
+        <v>1232.844296284899</v>
       </c>
       <c r="AC2" t="n">
-        <v>946.0625555310792</v>
+        <v>1115.183366955305</v>
       </c>
       <c r="AD2" t="n">
-        <v>764395.6577008949</v>
+        <v>901041.1819569105</v>
       </c>
       <c r="AE2" t="n">
-        <v>1045879.86162275</v>
+        <v>1232844.296284899</v>
       </c>
       <c r="AF2" t="n">
         <v>5.998356951602109e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.7125</v>
       </c>
       <c r="AH2" t="n">
-        <v>946062.5555310792</v>
+        <v>1115183.366955305</v>
       </c>
     </row>
     <row r="3">
@@ -6103,28 +6103,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.1565604601969</v>
+        <v>381.2250748555857</v>
       </c>
       <c r="AB3" t="n">
-        <v>414.7921803451777</v>
+        <v>521.6089658807283</v>
       </c>
       <c r="AC3" t="n">
-        <v>375.2049968175145</v>
+        <v>471.8273382598524</v>
       </c>
       <c r="AD3" t="n">
-        <v>303156.5604601969</v>
+        <v>381225.0748555857</v>
       </c>
       <c r="AE3" t="n">
-        <v>414792.1803451777</v>
+        <v>521608.9658807283</v>
       </c>
       <c r="AF3" t="n">
         <v>1.072036137580536e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.94583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>375204.9968175145</v>
+        <v>471827.3382598524</v>
       </c>
     </row>
     <row r="4">
@@ -6209,28 +6209,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>299.9319767332935</v>
+        <v>378.0004911286822</v>
       </c>
       <c r="AB4" t="n">
-        <v>410.3801626314344</v>
+        <v>517.1969481669851</v>
       </c>
       <c r="AC4" t="n">
-        <v>371.2140558820652</v>
+        <v>467.836397324403</v>
       </c>
       <c r="AD4" t="n">
-        <v>299931.9767332935</v>
+        <v>378000.4911286822</v>
       </c>
       <c r="AE4" t="n">
-        <v>410380.1626314344</v>
+        <v>517196.9481669851</v>
       </c>
       <c r="AF4" t="n">
         <v>1.083649830357711e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.7875</v>
       </c>
       <c r="AH4" t="n">
-        <v>371214.0558820652</v>
+        <v>467836.397324403</v>
       </c>
     </row>
     <row r="5">
@@ -6315,28 +6315,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>299.7974358004483</v>
+        <v>377.8659501958371</v>
       </c>
       <c r="AB5" t="n">
-        <v>410.1960777915886</v>
+        <v>517.0128633271394</v>
       </c>
       <c r="AC5" t="n">
-        <v>371.0475398409696</v>
+        <v>467.6698812833075</v>
       </c>
       <c r="AD5" t="n">
-        <v>299797.4358004483</v>
+        <v>377865.9501958371</v>
       </c>
       <c r="AE5" t="n">
-        <v>410196.0777915886</v>
+        <v>517012.8633271393</v>
       </c>
       <c r="AF5" t="n">
         <v>1.086610937456528e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.74583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>371047.5398409696</v>
+        <v>467669.8812833074</v>
       </c>
     </row>
   </sheetData>
@@ -6612,28 +6612,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>318.6873633182885</v>
+        <v>404.3308758023622</v>
       </c>
       <c r="AB2" t="n">
-        <v>436.0421099862836</v>
+        <v>553.2233420921032</v>
       </c>
       <c r="AC2" t="n">
-        <v>394.4268629981369</v>
+        <v>500.4244827766693</v>
       </c>
       <c r="AD2" t="n">
-        <v>318687.3633182885</v>
+        <v>404330.8758023622</v>
       </c>
       <c r="AE2" t="n">
-        <v>436042.1099862836</v>
+        <v>553223.3420921032</v>
       </c>
       <c r="AF2" t="n">
         <v>1.191477952639244e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.76666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>394426.8629981369</v>
+        <v>500424.4827766693</v>
       </c>
     </row>
     <row r="3">
@@ -6718,28 +6718,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>309.2417248898952</v>
+        <v>385.3323409958392</v>
       </c>
       <c r="AB3" t="n">
-        <v>423.1181707763985</v>
+        <v>527.2287086136168</v>
       </c>
       <c r="AC3" t="n">
-        <v>382.7363664075806</v>
+        <v>476.9107406336725</v>
       </c>
       <c r="AD3" t="n">
-        <v>309241.7248898952</v>
+        <v>385332.3409958392</v>
       </c>
       <c r="AE3" t="n">
-        <v>423118.1707763985</v>
+        <v>527228.7086136169</v>
       </c>
       <c r="AF3" t="n">
         <v>1.228584295348082e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.25833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>382736.3664075807</v>
+        <v>476910.7406336725</v>
       </c>
     </row>
   </sheetData>
@@ -7015,28 +7015,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.1762187598457</v>
+        <v>406.784619077667</v>
       </c>
       <c r="AB2" t="n">
-        <v>440.8157159188614</v>
+        <v>556.5806618928887</v>
       </c>
       <c r="AC2" t="n">
-        <v>398.7448826803075</v>
+        <v>503.4613846876957</v>
       </c>
       <c r="AD2" t="n">
-        <v>322176.2187598457</v>
+        <v>406784.619077667</v>
       </c>
       <c r="AE2" t="n">
-        <v>440815.7159188614</v>
+        <v>556580.6618928886</v>
       </c>
       <c r="AF2" t="n">
         <v>1.282509608021603e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>398744.8826803075</v>
+        <v>503461.3846876957</v>
       </c>
     </row>
     <row r="3">
@@ -7121,28 +7121,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>322.5584138827693</v>
+        <v>407.1668142005906</v>
       </c>
       <c r="AB3" t="n">
-        <v>441.3386521473042</v>
+        <v>557.1035981213314</v>
       </c>
       <c r="AC3" t="n">
-        <v>399.2179106090533</v>
+        <v>503.9344126164415</v>
       </c>
       <c r="AD3" t="n">
-        <v>322558.4138827693</v>
+        <v>407166.8142005906</v>
       </c>
       <c r="AE3" t="n">
-        <v>441338.6521473042</v>
+        <v>557103.5981213314</v>
       </c>
       <c r="AF3" t="n">
         <v>1.285180708068063e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.675</v>
       </c>
       <c r="AH3" t="n">
-        <v>399217.9106090533</v>
+        <v>503934.4126164416</v>
       </c>
     </row>
   </sheetData>
@@ -12159,28 +12159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.5622482781945</v>
+        <v>443.5204372282324</v>
       </c>
       <c r="AB2" t="n">
-        <v>479.6547338091056</v>
+        <v>606.8442289564078</v>
       </c>
       <c r="AC2" t="n">
-        <v>433.8771592140107</v>
+        <v>548.9278674560321</v>
       </c>
       <c r="AD2" t="n">
-        <v>350562.2482781946</v>
+        <v>443520.4372282324</v>
       </c>
       <c r="AE2" t="n">
-        <v>479654.7338091056</v>
+        <v>606844.2289564079</v>
       </c>
       <c r="AF2" t="n">
         <v>1.309670531366003e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.475</v>
       </c>
       <c r="AH2" t="n">
-        <v>433877.1592140107</v>
+        <v>548927.8674560321</v>
       </c>
     </row>
     <row r="3">
@@ -12265,28 +12265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>351.3964100299118</v>
+        <v>444.3545989799496</v>
       </c>
       <c r="AB3" t="n">
-        <v>480.7960707184243</v>
+        <v>607.9855658657265</v>
       </c>
       <c r="AC3" t="n">
-        <v>434.9095685305805</v>
+        <v>549.9602767726019</v>
       </c>
       <c r="AD3" t="n">
-        <v>351396.4100299118</v>
+        <v>444354.5989799496</v>
       </c>
       <c r="AE3" t="n">
-        <v>480796.0707184243</v>
+        <v>607985.5658657264</v>
       </c>
       <c r="AF3" t="n">
         <v>1.311813216758318e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.44583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>434909.5685305805</v>
+        <v>549960.2767726019</v>
       </c>
     </row>
   </sheetData>
@@ -12562,28 +12562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>471.1732349938744</v>
+        <v>598.7870859057389</v>
       </c>
       <c r="AB2" t="n">
-        <v>644.6800068146966</v>
+        <v>819.2869075580713</v>
       </c>
       <c r="AC2" t="n">
-        <v>583.1526517783734</v>
+        <v>741.095314977125</v>
       </c>
       <c r="AD2" t="n">
-        <v>471173.2349938744</v>
+        <v>598787.0859057389</v>
       </c>
       <c r="AE2" t="n">
-        <v>644680.0068146966</v>
+        <v>819286.9075580713</v>
       </c>
       <c r="AF2" t="n">
         <v>1.259141552889971e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>583152.6517783734</v>
+        <v>741095.314977125</v>
       </c>
     </row>
   </sheetData>
@@ -12859,28 +12859,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>434.0339672167196</v>
+        <v>530.2383191388915</v>
       </c>
       <c r="AB2" t="n">
-        <v>593.8644221731363</v>
+        <v>725.4954607095153</v>
       </c>
       <c r="AC2" t="n">
-        <v>537.1868352148828</v>
+        <v>656.2551921786728</v>
       </c>
       <c r="AD2" t="n">
-        <v>434033.9672167196</v>
+        <v>530238.3191388915</v>
       </c>
       <c r="AE2" t="n">
-        <v>593864.4221731363</v>
+        <v>725495.4607095154</v>
       </c>
       <c r="AF2" t="n">
         <v>9.274451612138758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.54166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>537186.8352148827</v>
+        <v>656255.1921786728</v>
       </c>
     </row>
     <row r="3">
@@ -12965,28 +12965,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>300.984248684586</v>
+        <v>377.8462449958383</v>
       </c>
       <c r="AB3" t="n">
-        <v>411.8199275381549</v>
+        <v>516.985901803169</v>
       </c>
       <c r="AC3" t="n">
-        <v>372.516411646811</v>
+        <v>467.6454929293441</v>
       </c>
       <c r="AD3" t="n">
-        <v>300984.248684586</v>
+        <v>377846.2449958383</v>
       </c>
       <c r="AE3" t="n">
-        <v>411819.9275381549</v>
+        <v>516985.9018031689</v>
       </c>
       <c r="AF3" t="n">
         <v>1.171420393802218e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.47083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>372516.4116468111</v>
+        <v>467645.4929293441</v>
       </c>
     </row>
     <row r="4">
@@ -13071,28 +13071,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>301.7829776159775</v>
+        <v>378.6449739272299</v>
       </c>
       <c r="AB4" t="n">
-        <v>412.9127836995183</v>
+        <v>518.0787579645324</v>
       </c>
       <c r="AC4" t="n">
-        <v>373.5049671499673</v>
+        <v>468.6340484325003</v>
       </c>
       <c r="AD4" t="n">
-        <v>301782.9776159775</v>
+        <v>378644.9739272299</v>
       </c>
       <c r="AE4" t="n">
-        <v>412912.7836995184</v>
+        <v>518078.7579645324</v>
       </c>
       <c r="AF4" t="n">
         <v>1.171420393802218e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.47083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>373504.9671499673</v>
+        <v>468634.0484325003</v>
       </c>
     </row>
   </sheetData>
@@ -13368,28 +13368,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>686.9539365269857</v>
+        <v>803.7567276535812</v>
       </c>
       <c r="AB2" t="n">
-        <v>939.9206822249931</v>
+        <v>1099.735414019867</v>
       </c>
       <c r="AC2" t="n">
-        <v>850.2159715004017</v>
+        <v>994.7782095941575</v>
       </c>
       <c r="AD2" t="n">
-        <v>686953.9365269857</v>
+        <v>803756.7276535812</v>
       </c>
       <c r="AE2" t="n">
-        <v>939920.6822249931</v>
+        <v>1099735.414019867</v>
       </c>
       <c r="AF2" t="n">
         <v>6.541730075454199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.03333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>850215.9715004017</v>
+        <v>994778.2095941575</v>
       </c>
     </row>
     <row r="3">
@@ -13474,28 +13474,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.3709405620576</v>
+        <v>376.2274054869561</v>
       </c>
       <c r="AB3" t="n">
-        <v>408.2442840738939</v>
+        <v>514.7709341689576</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.2820225763321</v>
+        <v>465.6419186974153</v>
       </c>
       <c r="AD3" t="n">
-        <v>298370.9405620575</v>
+        <v>376227.4054869561</v>
       </c>
       <c r="AE3" t="n">
-        <v>408244.2840738939</v>
+        <v>514770.9341689576</v>
       </c>
       <c r="AF3" t="n">
         <v>1.096576959295675e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.93333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>369282.022576332</v>
+        <v>465641.9186974153</v>
       </c>
     </row>
     <row r="4">
@@ -13580,28 +13580,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>298.2548379776548</v>
+        <v>376.1113029025533</v>
       </c>
       <c r="AB4" t="n">
-        <v>408.0854273958296</v>
+        <v>514.6120774908933</v>
       </c>
       <c r="AC4" t="n">
-        <v>369.1383269566654</v>
+        <v>465.4982230777487</v>
       </c>
       <c r="AD4" t="n">
-        <v>298254.8379776548</v>
+        <v>376111.3029025533</v>
       </c>
       <c r="AE4" t="n">
-        <v>408085.4273958296</v>
+        <v>514612.0774908933</v>
       </c>
       <c r="AF4" t="n">
         <v>1.099524746820663e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>369138.3269566654</v>
+        <v>465498.2230777487</v>
       </c>
     </row>
     <row r="5">
@@ -13686,28 +13686,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>298.1912578454218</v>
+        <v>376.0477227703204</v>
       </c>
       <c r="AB5" t="n">
-        <v>407.998434253951</v>
+        <v>514.5250843490147</v>
       </c>
       <c r="AC5" t="n">
-        <v>369.0596363181521</v>
+        <v>465.4195324392353</v>
       </c>
       <c r="AD5" t="n">
-        <v>298191.2578454218</v>
+        <v>376047.7227703204</v>
       </c>
       <c r="AE5" t="n">
-        <v>407998.434253951</v>
+        <v>514525.0843490147</v>
       </c>
       <c r="AF5" t="n">
         <v>1.102433230511985e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.85416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>369059.6363181521</v>
+        <v>465419.5324392353</v>
       </c>
     </row>
   </sheetData>
@@ -13983,28 +13983,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>609.7094845608452</v>
+        <v>772.209367581333</v>
       </c>
       <c r="AB2" t="n">
-        <v>834.2314152602083</v>
+        <v>1056.570924197717</v>
       </c>
       <c r="AC2" t="n">
-        <v>754.6135398389182</v>
+        <v>955.7332780988916</v>
       </c>
       <c r="AD2" t="n">
-        <v>609709.4845608452</v>
+        <v>772209.367581333</v>
       </c>
       <c r="AE2" t="n">
-        <v>834231.4152602083</v>
+        <v>1056570.924197717</v>
       </c>
       <c r="AF2" t="n">
         <v>1.143312624110653e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>754613.5398389183</v>
+        <v>955733.2780988916</v>
       </c>
     </row>
   </sheetData>
@@ -14280,28 +14280,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.6515386183455</v>
+        <v>396.1632471135381</v>
       </c>
       <c r="AB2" t="n">
-        <v>438.7295812851202</v>
+        <v>542.0480321897071</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.8578458081022</v>
+        <v>490.315728766712</v>
       </c>
       <c r="AD2" t="n">
-        <v>320651.5386183455</v>
+        <v>396163.2471135381</v>
       </c>
       <c r="AE2" t="n">
-        <v>438729.5812851202</v>
+        <v>542048.0321897072</v>
       </c>
       <c r="AF2" t="n">
         <v>1.262353556232474e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.15833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>396857.8458081022</v>
+        <v>490315.728766712</v>
       </c>
     </row>
     <row r="3">
@@ -14386,28 +14386,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>320.2759505709515</v>
+        <v>395.7876590661442</v>
       </c>
       <c r="AB3" t="n">
-        <v>438.2156851489005</v>
+        <v>541.5341360534875</v>
       </c>
       <c r="AC3" t="n">
-        <v>396.3929951978656</v>
+        <v>489.8508781564755</v>
       </c>
       <c r="AD3" t="n">
-        <v>320275.9505709515</v>
+        <v>395787.6590661441</v>
       </c>
       <c r="AE3" t="n">
-        <v>438215.6851489005</v>
+        <v>541534.1360534875</v>
       </c>
       <c r="AF3" t="n">
         <v>1.267655815445772e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.0875</v>
       </c>
       <c r="AH3" t="n">
-        <v>396392.9951978656</v>
+        <v>489850.8781564754</v>
       </c>
     </row>
   </sheetData>
@@ -14683,28 +14683,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.7303814769672</v>
+        <v>434.6234277925817</v>
       </c>
       <c r="AB2" t="n">
-        <v>477.1482928354067</v>
+        <v>594.670948138196</v>
       </c>
       <c r="AC2" t="n">
-        <v>431.6099294490297</v>
+        <v>537.9163874738036</v>
       </c>
       <c r="AD2" t="n">
-        <v>348730.3814769672</v>
+        <v>434623.4277925817</v>
       </c>
       <c r="AE2" t="n">
-        <v>477148.2928354067</v>
+        <v>594670.948138196</v>
       </c>
       <c r="AF2" t="n">
         <v>1.109513339534611e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.38333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>431609.9294490297</v>
+        <v>537916.3874738036</v>
       </c>
     </row>
     <row r="3">
@@ -14789,28 +14789,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>299.7144262921683</v>
+        <v>385.6406269967064</v>
       </c>
       <c r="AB3" t="n">
-        <v>410.0825005202389</v>
+        <v>527.650519120622</v>
       </c>
       <c r="AC3" t="n">
-        <v>370.9448022249907</v>
+        <v>477.2922941379037</v>
       </c>
       <c r="AD3" t="n">
-        <v>299714.4262921683</v>
+        <v>385640.6269967064</v>
       </c>
       <c r="AE3" t="n">
-        <v>410082.5005202389</v>
+        <v>527650.519120622</v>
       </c>
       <c r="AF3" t="n">
         <v>1.209263078654223e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.95</v>
       </c>
       <c r="AH3" t="n">
-        <v>370944.8022249907</v>
+        <v>477292.2941379037</v>
       </c>
     </row>
     <row r="4">
@@ -14895,28 +14895,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>300.5043174648346</v>
+        <v>386.4305181693727</v>
       </c>
       <c r="AB4" t="n">
-        <v>411.16326447022</v>
+        <v>528.731283070603</v>
       </c>
       <c r="AC4" t="n">
-        <v>371.9224195804474</v>
+        <v>478.2699114933604</v>
       </c>
       <c r="AD4" t="n">
-        <v>300504.3174648346</v>
+        <v>386430.5181693727</v>
       </c>
       <c r="AE4" t="n">
-        <v>411163.26447022</v>
+        <v>528731.283070603</v>
       </c>
       <c r="AF4" t="n">
         <v>1.209263078654223e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.95</v>
       </c>
       <c r="AH4" t="n">
-        <v>371922.4195804474</v>
+        <v>478269.9114933604</v>
       </c>
     </row>
   </sheetData>
